--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_536.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_536.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32644-d271450-Reviews-Motel_6-Lomita_California.html</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_536.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_536.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,144 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r468885431-Motel_6-Lomita_California.html</t>
+  </si>
+  <si>
+    <t>32644</t>
+  </si>
+  <si>
+    <t>271450</t>
+  </si>
+  <si>
+    <t>468885431</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>End of the March road trip</t>
+  </si>
+  <si>
+    <t>OMG, by necessity I have stayed at some pretty funky Motel 6's, but this one wasn't even in the same universe. The room was super modern and clean and the bathroom was like heaven after a long road trip. The gentleman that checked us in was very friendly even though we got there late. My only complaint is the heater and the refrigerator were both very loud. If I hadn't have been so tired, I would have gotten up and unplugged the mini fridge and called it a day, but we were stuck with the loud heater. All in all, first world problems and it would in no way stop me from staying there again. We checked in late and left early so I don't have any other tips.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>OMG, by necessity I have stayed at some pretty funky Motel 6's, but this one wasn't even in the same universe. The room was super modern and clean and the bathroom was like heaven after a long road trip. The gentleman that checked us in was very friendly even though we got there late. My only complaint is the heater and the refrigerator were both very loud. If I hadn't have been so tired, I would have gotten up and unplugged the mini fridge and called it a day, but we were stuck with the loud heater. All in all, first world problems and it would in no way stop me from staying there again. We checked in late and left early so I don't have any other tips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r459472334-Motel_6-Lomita_California.html</t>
+  </si>
+  <si>
+    <t>459472334</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Affordable Rates + Very Clean, Well Kept Rooms + Pet Friendly AND the staff is GREAT!</t>
+  </si>
+  <si>
+    <t>Im in the process of relocating to be closer to my job,  and needless to say, the stress of moving into a new place and all of the expenses that go along with it, makes money a big issue for me right now.  Its nearly impossible to find a motel that is budget friendly with very clean rooms and allows pets. Motel 6 in Lomita california is by far the best  motel in the south bay area.  The friendly staff  combined with the well lit, secure parking area makes for a very comfortable atmosphere. I would DEFINITELY recommend this motel to anyone who wants a comfortable, clean place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Im in the process of relocating to be closer to my job,  and needless to say, the stress of moving into a new place and all of the expenses that go along with it, makes money a big issue for me right now.  Its nearly impossible to find a motel that is budget friendly with very clean rooms and allows pets. Motel 6 in Lomita california is by far the best  motel in the south bay area.  The friendly staff  combined with the well lit, secure parking area makes for a very comfortable atmosphere. I would DEFINITELY recommend this motel to anyone who wants a comfortable, clean place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r395862877-Motel_6-Lomita_California.html</t>
+  </si>
+  <si>
+    <t>395862877</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Thanks for the best service and kindness</t>
+  </si>
+  <si>
+    <t>Very Clean rooms and great parking area I felt safe in my surroundings and its location is close to what I had need of for gas and food and the price fit my budget.I stayed for 4 days and came back again at a later date. I was comfortable with the Manager who was sincere, polite and helpful.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r151745914-Motel_6-Lomita_California.html</t>
+  </si>
+  <si>
+    <t>151745914</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>Nice Quiet Place</t>
+  </si>
+  <si>
+    <t>Good Value for Price ! Very quiet and remodeled. Owner lives on site and is available 24/7 if you need anything at all. It is a great location on Pacific Coast Highway just South of Redondo Beach.Staff is friendly and housekeeping is wonderful. I would stay here again !!!!</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r53555947-Motel_6-Lomita_California.html</t>
+  </si>
+  <si>
+    <t>53555947</t>
+  </si>
+  <si>
+    <t>01/15/2010</t>
+  </si>
+  <si>
+    <t>Motel with Hotel feel...Best bang for your money...</t>
+  </si>
+  <si>
+    <t>First of all i have to say is not all motels are same, and i know this because i travel a lot and i just don't stay at any hotel/motels. Plus i am very picky about where i stay and what they have to offer for my money. Motel manager and his service was outstanding. Most  motels don't provide good service for their customer but this one was different. Location of this motel is very good because it's within walking distance of most of the things people want. such as restaurant, shopping and movie theater. Rolling Hills plaza provides most if not all of this things, and you can't beat walking distance. This motel also has very i mean very clean and quite rooms. This room where i stayed was differently design then the motels i some time stay at. Room came with a queen size bed, refrigerator and micro wave. TV was fully cable and had more then 100 cable channels. What i like about there cable TV was they had 7 HBO channels and they were combination of east-cost and west-cost. It was good cause i can now  watch some of my favorite shows 3hrs earlier then it usual time. Motel also offer a free WiFi access if you ask the manager at front desk. Internet speed was very good. Overall i like this place for what it had to offer me for my money. I'll definitely stay...First of all i have to say is not all motels are same, and i know this because i travel a lot and i just don't stay at any hotel/motels. Plus i am very picky about where i stay and what they have to offer for my money. Motel manager and his service was outstanding. Most  motels don't provide good service for their customer but this one was different. Location of this motel is very good because it's within walking distance of most of the things people want. such as restaurant, shopping and movie theater. Rolling Hills plaza provides most if not all of this things, and you can't beat walking distance. This motel also has very i mean very clean and quite rooms. This room where i stayed was differently design then the motels i some time stay at. Room came with a queen size bed, refrigerator and micro wave. TV was fully cable and had more then 100 cable channels. What i like about there cable TV was they had 7 HBO channels and they were combination of east-cost and west-cost. It was good cause i can now  watch some of my favorite shows 3hrs earlier then it usual time. Motel also offer a free WiFi access if you ask the manager at front desk. Internet speed was very good. Overall i like this place for what it had to offer me for my money. I'll definitely stay here when i come back and tell my friends about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>First of all i have to say is not all motels are same, and i know this because i travel a lot and i just don't stay at any hotel/motels. Plus i am very picky about where i stay and what they have to offer for my money. Motel manager and his service was outstanding. Most  motels don't provide good service for their customer but this one was different. Location of this motel is very good because it's within walking distance of most of the things people want. such as restaurant, shopping and movie theater. Rolling Hills plaza provides most if not all of this things, and you can't beat walking distance. This motel also has very i mean very clean and quite rooms. This room where i stayed was differently design then the motels i some time stay at. Room came with a queen size bed, refrigerator and micro wave. TV was fully cable and had more then 100 cable channels. What i like about there cable TV was they had 7 HBO channels and they were combination of east-cost and west-cost. It was good cause i can now  watch some of my favorite shows 3hrs earlier then it usual time. Motel also offer a free WiFi access if you ask the manager at front desk. Internet speed was very good. Overall i like this place for what it had to offer me for my money. I'll definitely stay...First of all i have to say is not all motels are same, and i know this because i travel a lot and i just don't stay at any hotel/motels. Plus i am very picky about where i stay and what they have to offer for my money. Motel manager and his service was outstanding. Most  motels don't provide good service for their customer but this one was different. Location of this motel is very good because it's within walking distance of most of the things people want. such as restaurant, shopping and movie theater. Rolling Hills plaza provides most if not all of this things, and you can't beat walking distance. This motel also has very i mean very clean and quite rooms. This room where i stayed was differently design then the motels i some time stay at. Room came with a queen size bed, refrigerator and micro wave. TV was fully cable and had more then 100 cable channels. What i like about there cable TV was they had 7 HBO channels and they were combination of east-cost and west-cost. It was good cause i can now  watch some of my favorite shows 3hrs earlier then it usual time. Motel also offer a free WiFi access if you ask the manager at front desk. Internet speed was very good. Overall i like this place for what it had to offer me for my money. I'll definitely stay here when i come back and tell my friends about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r17765661-Motel_6-Lomita_California.html</t>
+  </si>
+  <si>
+    <t>17765661</t>
+  </si>
+  <si>
+    <t>07/10/2008</t>
+  </si>
+  <si>
+    <t>Very clean, quit and safe....</t>
+  </si>
+  <si>
+    <t>Lomita motel is like any other motel I stayed at. Price is good for the room and service you receive. The motel is very clean (both inside and outside). If you like quite place to stay then this motel is the place to stay in. It’s also very safe. I went to 6 different motels before i got to this motel and the frondesk manager was nice enough to show me the room before i take it. Some motel manger before this one did not even wanted me to see the room; i wonder what they were hiding. Maid came everyday to clean my room. Grocery store and few restaurants are close by within walking distance. Room has a TV, refrigerator, microwave, queen size bed, it also has rack and armoire to put your cloths and if you need internet the front desk gives you a password for wireless internet.     Only thing the room was missing was the phone. I guess since everyone has a cell phone now days it did not worth it for them to put it in, but if you need phone then you are out of luck.    Over all I loved this place and next time I come back I will definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Lomita motel is like any other motel I stayed at. Price is good for the room and service you receive. The motel is very clean (both inside and outside). If you like quite place to stay then this motel is the place to stay in. It’s also very safe. I went to 6 different motels before i got to this motel and the frondesk manager was nice enough to show me the room before i take it. Some motel manger before this one did not even wanted me to see the room; i wonder what they were hiding. Maid came everyday to clean my room. Grocery store and few restaurants are close by within walking distance. Room has a TV, refrigerator, microwave, queen size bed, it also has rack and armoire to put your cloths and if you need internet the front desk gives you a password for wireless internet.     Only thing the room was missing was the phone. I guess since everyone has a cell phone now days it did not worth it for them to put it in, but if you need phone then you are out of luck.    Over all I loved this place and next time I come back I will definitely stay here.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +783,392 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65845</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65845</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65845</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65845</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65845</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65845</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_536.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_536.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Angie R</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>OMG, by necessity I have stayed at some pretty funky Motel 6's, but this one wasn't even in the same universe. The room was super modern and clean and the bathroom was like heaven after a long road trip. The gentleman that checked us in was very friendly even though we got there late. My only complaint is the heater and the refrigerator were both very loud. If I hadn't have been so tired, I would have gotten up and unplugged the mini fridge and called it a day, but we were stuck with the loud heater. All in all, first world problems and it would in no way stop me from staying there again. We checked in late and left early so I don't have any other tips.More</t>
   </si>
   <si>
+    <t>BVeeismee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r459472334-Motel_6-Lomita_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Im in the process of relocating to be closer to my job,  and needless to say, the stress of moving into a new place and all of the expenses that go along with it, makes money a big issue for me right now.  Its nearly impossible to find a motel that is budget friendly with very clean rooms and allows pets. Motel 6 in Lomita california is by far the best  motel in the south bay area.  The friendly staff  combined with the well lit, secure parking area makes for a very comfortable atmosphere. I would DEFINITELY recommend this motel to anyone who wants a comfortable, clean place to stay.More</t>
   </si>
   <si>
+    <t>2well</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r395862877-Motel_6-Lomita_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>STACEY M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r151745914-Motel_6-Lomita_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>jasonx01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r53555947-Motel_6-Lomita_California.html</t>
   </si>
   <si>
@@ -262,6 +277,9 @@
   </si>
   <si>
     <t>First of all i have to say is not all motels are same, and i know this because i travel a lot and i just don't stay at any hotel/motels. Plus i am very picky about where i stay and what they have to offer for my money. Motel manager and his service was outstanding. Most  motels don't provide good service for their customer but this one was different. Location of this motel is very good because it's within walking distance of most of the things people want. such as restaurant, shopping and movie theater. Rolling Hills plaza provides most if not all of this things, and you can't beat walking distance. This motel also has very i mean very clean and quite rooms. This room where i stayed was differently design then the motels i some time stay at. Room came with a queen size bed, refrigerator and micro wave. TV was fully cable and had more then 100 cable channels. What i like about there cable TV was they had 7 HBO channels and they were combination of east-cost and west-cost. It was good cause i can now  watch some of my favorite shows 3hrs earlier then it usual time. Motel also offer a free WiFi access if you ask the manager at front desk. Internet speed was very good. Overall i like this place for what it had to offer me for my money. I'll definitely stay...First of all i have to say is not all motels are same, and i know this because i travel a lot and i just don't stay at any hotel/motels. Plus i am very picky about where i stay and what they have to offer for my money. Motel manager and his service was outstanding. Most  motels don't provide good service for their customer but this one was different. Location of this motel is very good because it's within walking distance of most of the things people want. such as restaurant, shopping and movie theater. Rolling Hills plaza provides most if not all of this things, and you can't beat walking distance. This motel also has very i mean very clean and quite rooms. This room where i stayed was differently design then the motels i some time stay at. Room came with a queen size bed, refrigerator and micro wave. TV was fully cable and had more then 100 cable channels. What i like about there cable TV was they had 7 HBO channels and they were combination of east-cost and west-cost. It was good cause i can now  watch some of my favorite shows 3hrs earlier then it usual time. Motel also offer a free WiFi access if you ask the manager at front desk. Internet speed was very good. Overall i like this place for what it had to offer me for my money. I'll definitely stay here when i come back and tell my friends about it.More</t>
+  </si>
+  <si>
+    <t>viper77</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32644-d271450-r17765661-Motel_6-Lomita_California.html</t>
@@ -787,43 +805,47 @@
       <c r="A2" t="n">
         <v>65845</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -843,50 +865,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65845</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -904,50 +930,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65845</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -965,50 +995,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65845</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1032,50 +1066,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65845</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1099,50 +1137,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65845</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1166,7 +1208,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
